--- a/server/test/planner/results.xlsx
+++ b/server/test/planner/results.xlsx
@@ -590,11 +590,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -615,6 +616,11 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -622,7 +628,6 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -667,7 +672,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -684,7 +689,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -712,7 +721,7 @@
   <dimension ref="A1:E697"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -721,23 +730,23 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.06"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -755,7 +764,7 @@
         <v>4096</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -772,7 +781,7 @@
         <v>4096</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,7 +853,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2183,7 +2192,7 @@
         <v>5113</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,7 +2209,7 @@
         <v>5113</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,7 +2430,7 @@
         <v>5669</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3866,7 +3875,7 @@
         <v>7724</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3883,7 +3892,7 @@
         <v>43756</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4733,7 +4742,7 @@
         <v>43954</v>
       </c>
       <c r="E236" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5141,7 +5150,7 @@
         <v>263062</v>
       </c>
       <c r="E260" s="2" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
